--- a/biology/Zoologie/Code_international_de_nomenclature_zoologique/Code_international_de_nomenclature_zoologique.xlsx
+++ b/biology/Zoologie/Code_international_de_nomenclature_zoologique/Code_international_de_nomenclature_zoologique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Code international de nomenclature zoologique (CINZ) définit et édicte les règles d'élaboration et de priorité des noms scientifiques des organismes animaux.
 L'objet du CINZ est de promouvoir la stabilité et l'universalité des noms scientifiques des animaux, et de faire en sorte que le nom de chaque taxon soit unique et distinct, afin de faciliter la connaissance et la communication au sein de la communauté scientifique. Les noms admis sont donc à cette fin latinisés. Mais le code doit également permettre la souplesse et l'adaptation, étant donné que la classification évolue au fur et à mesure des connaissances acquises, et du fait que de très nombreuses espèces ne sont pas encore connues ni décrites.
@@ -514,13 +526,15 @@
           <t>Historique des éditions</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La première version avec le nom courant a été adoptée par le XVe Congrès international de zoologie de Londres en juillet 1958 (publiée en 1961[édition 1]), mais il y avait des prédécesseurs jusqu'à un siècle auparavant.
 La 2e édition paraît en 1964[édition 2].
 La 3e édition du code, adopté par la XXe Assemblée générale de l'Union internationale des sciences biologiques, est publiée en 1985[édition 3].
 La version en vigueur en 2018 est la 4e édition, publiée en 1999[édition 4].
-Toutes ces éditions sont consultables et téléchargeables, dans toutes les langues disponibles, sur le site web de la Commission internationale de nomenclature zoologique[1],[2]. Certains sites d'organismes affiliés, tel que l'American Association for Zoological Nomenclature (AAZN) permettent également d'accéder au code, de manière moins large (toutes les langues ou toutes les éditions n'y sont pas disponibles)
+Toutes ces éditions sont consultables et téléchargeables, dans toutes les langues disponibles, sur le site web de la Commission internationale de nomenclature zoologique,. Certains sites d'organismes affiliés, tel que l'American Association for Zoological Nomenclature (AAZN) permettent également d'accéder au code, de manière moins large (toutes les langues ou toutes les éditions n'y sont pas disponibles)
 </t>
         </is>
       </c>
@@ -551,15 +565,90 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Champ et indépendance
-Le code s'applique à tous les taxons de métazoaires, y compris les protistes, actuels ou éteints, . Par contre, il ne s'applique pas aux taxons inférieurs au rang de sous-espèce (tels que variété, forme, etc.) (article 1).
+          <t>Champ et indépendance</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le code s'applique à tous les taxons de métazoaires, y compris les protistes, actuels ou éteints, . Par contre, il ne s'applique pas aux taxons inférieurs au rang de sous-espèce (tels que variété, forme, etc.) (article 1).
 Il est indépendant des autres codes de nomenclature scientifique, si bien qu'il peut y avoir des noms identiques pour un taxon en zoologie et un taxon dans un autre champ, qui ont leurs propres codes de nomenclature (codes de nomenclatures des plantes, algues et champignons, des bactéries, etc.) (article 1.4).
-Ainsi, le nom Riedelia désigne d'une part Riedelia, dont le nom scientifique est Riedelia Oliv., 1883, un genre de plantes de la famille des Zinziberaceae décrit en 1883[3], mais également un sous-genre d'escargots du genre Hygromia (famille des Hygromiidae), dont le nom scientifique est Riedelia Schileyko, 1972[4] (et qui possède d'ailleurs un homonyme, Riedelia Mesnil, 1942, un genre de mouches de la famille des Tachinidae[5]). Il est toutefois recommandé aux auteurs de vérifier si le nom qu'ils entendent donner n'est pas déjà utilisé pour éviter de telles situations (note à l'article 1.4 du Code).
+Ainsi, le nom Riedelia désigne d'une part Riedelia, dont le nom scientifique est Riedelia Oliv., 1883, un genre de plantes de la famille des Zinziberaceae décrit en 1883, mais également un sous-genre d'escargots du genre Hygromia (famille des Hygromiidae), dont le nom scientifique est Riedelia Schileyko, 1972 (et qui possède d'ailleurs un homonyme, Riedelia Mesnil, 1942, un genre de mouches de la famille des Tachinidae). Il est toutefois recommandé aux auteurs de vérifier si le nom qu'ils entendent donner n'est pas déjà utilisé pour éviter de telles situations (note à l'article 1.4 du Code).
 Par convention, le point de départ de la nomenclature est fixé au 1er janvier 1758, date présumée de deux publications, la 10e édition du Systema Naturae de Linné, et Aranei Svecici de Clerck. Les noms donnés antérieurement ne sont pas pris en considération, mais des descriptions ou des illustrations peuvent être utilisées (article 3).
-Disponibilité et validité
-Pour être utilisé, un nom scientifique doit être disponible et valide.
-Syntaxe des noms
-La syntaxe des noms varie avec le rang taxonomique :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Code_international_de_nomenclature_zoologique</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Code_international_de_nomenclature_zoologique</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Principes</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Disponibilité et validité</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pour être utilisé, un nom scientifique doit être disponible et valide.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Code_international_de_nomenclature_zoologique</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Code_international_de_nomenclature_zoologique</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Principes</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Syntaxe des noms</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>La syntaxe des noms varie avec le rang taxonomique :
 Les noms des taxons supérieurs à l'espèce (genre, tribu, famille etc.) sont uninominaux (un seul nom) et portent la majuscule (article 4), par exemple :
 les Teleostei (infra-classe de poissons)
 les Sirenia (ordre de mammifères)
@@ -580,31 +669,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Code_international_de_nomenclature_zoologique</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Code_international_de_nomenclature_zoologique</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Structure</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
